--- a/biology/Botanique/Spongomorpha_aeruginosa/Spongomorpha_aeruginosa.xlsx
+++ b/biology/Botanique/Spongomorpha_aeruginosa/Spongomorpha_aeruginosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spongomorpha aeruginosa est une espèce d'algues vertes de la famille des Acrosiphoniaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Aspect</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette algue se présente sous la forme d'un pompom vert clair, aux filaments courts, de 2 à 3 cm de largeur. Elle est presque toujours épiphyte d'algues rouges telles que Chondrus crispus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette algue se présente sous la forme d'un pompom vert clair, aux filaments courts, de 2 à 3 cm de largeur. Elle est presque toujours épiphyte d'algues rouges telles que Chondrus crispus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Spongomorpha aeruginosa alterne deux phases au cours de son existence[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Spongomorpha aeruginosa alterne deux phases au cours de son existence:
 La phase gamétophyte, décrite ci-dessus, produit des gamètes.
 La phase sporophyte, unicellulaire et microscopique, vit en endophyte à l'intérieur d'algues rouges. Elle produit des spores.</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut se trouver dans certaines zones semi-abritées du nord-ouest et du nord-est de l'Océan Atlantique (pour cette dernière zone, de l'Arctique au Nord de l'Espagne)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut se trouver dans certaines zones semi-abritées du nord-ouest et du nord-est de l'Océan Atlantique (pour cette dernière zone, de l'Arctique au Nord de l'Espagne).
 </t>
         </is>
       </c>
@@ -607,8 +625,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxonomie
-D'abord nommée Conferva aeruginosa par Carl von Linné (Linnaeus), elle a reçu par la suite de nombreux noms scientifiques, de nos jours considérés comme synonymes mais non valides[2]:
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord nommée Conferva aeruginosa par Carl von Linné (Linnaeus), elle a reçu par la suite de nombreux noms scientifiques, de nos jours considérés comme synonymes mais non valides:
 Acrosiphonia bombycina Kjellman
 Acrosiphonia lanosa (Mertens ex Roth) J. Agardh 1846
 Acrosiphonia pallida Kjellman
@@ -624,8 +647,43 @@
 Spongomorpha pallida (Kjellman) Wille
 Spongomorpha uncialis (O.F. Müller) Kützing 1843
 C'est en 1963 que Christiaan van den Hoek la nomma Spongomorpha aeruginosa, qui est le nom actuellement considéré comme valide.
-Étymologie
-Le terme spongomorpha signifie en grec ancien en forme d'éponge. Quant à aeruginosa, c'est un mot latin signifiant couvert de rouille[1], ou plus précisément couvert de vert-de-gris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Spongomorpha_aeruginosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spongomorpha_aeruginosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme spongomorpha signifie en grec ancien en forme d'éponge. Quant à aeruginosa, c'est un mot latin signifiant couvert de rouille, ou plus précisément couvert de vert-de-gris.
 </t>
         </is>
       </c>
